--- a/biology/Botanique/Jacksonia_scoparia/Jacksonia_scoparia.xlsx
+++ b/biology/Botanique/Jacksonia_scoparia/Jacksonia_scoparia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacksonia scoparia est une espèce d'arbuste ou de petit arbre de la famille des Fabaceae que l'on trouve dans le sud-est du Queensland et l'est de la Nouvelle-Galles du Sud en Australie. On le rencontre souvent sur les hautes crêtes exposées du Parc national des Oxley Wild Rivers dans les Northern Tablelands. Les fleurs jaunes apparaissent en grappes en octobre et novembre sur les branches supérieures.
 Au cours des périodes de sécheresse, il a fourni un fourrage utile apprécié par le bétail. La multiplication se fait relativement facilement à partir de graines après prétraitement à l'eau bouillante (comme pour d'autres membres de la famille des Fabaceae). Les boutures reprennent raisonnablement facilement.
